--- a/Book/adact.xlsx
+++ b/Book/adact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>6AI3N0M57W</t>
+  </si>
+  <si>
+    <t>N3E8W32652</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
         <v>1234</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Book/adact.xlsx
+++ b/Book/adact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>N3E8W32652</t>
+  </si>
+  <si>
+    <t>X4RXEE0Z03</t>
+  </si>
+  <si>
+    <t>S99YOIKM4Y</t>
   </si>
 </sst>
 </file>
@@ -598,7 +604,7 @@
         <v>1234</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
